--- a/biology/Médecine/1515_en_santé_et_médecine/1515_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1515_en_santé_et_médecine/1515_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1515_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1515_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1515 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1515_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1515_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14 mai : à Strasbourg, ville libre d'Empire, « un règlement applicable au pharmacien de l'hôpital : Des appotecker knechts ordnunge […] est ratifié par le sénat[1] ».
-« Un accord est conclu entre la Faculté et les chirurgiens de Saint-Côme, accord qui marqu[e] la fin du « premier acte de la guerre qui pendant plusieurs siècles mit aux prises les médecins, les chirurgiens et les barbiers de Paris[2] » ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14 mai : à Strasbourg, ville libre d'Empire, « un règlement applicable au pharmacien de l'hôpital : Des appotecker knechts ordnunge […] est ratifié par le sénat ».
+« Un accord est conclu entre la Faculté et les chirurgiens de Saint-Côme, accord qui marqu[e] la fin du « premier acte de la guerre qui pendant plusieurs siècles mit aux prises les médecins, les chirurgiens et les barbiers de Paris » ».</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1515_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1515_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Édition, à Lyon, des Omnia opera Ysaac, « Œuvres complètes d'Isaac Israeli [c. 840 – c. 940] », « qui rassemblent des textes dont l'influence fut déterminante au moment du développement de l'enseignement médical dans l'Occident chrétien, à partir du XIIe siècle[3] ».
-Première édition du Tractatus de formatione corporis humani in utero (« De la formation du corps humain dans l'utérus ») de Gilles de Rome (1247-1316[4]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Édition, à Lyon, des Omnia opera Ysaac, « Œuvres complètes d'Isaac Israeli [c. 840 – c. 940] », « qui rassemblent des textes dont l'influence fut déterminante au moment du développement de l'enseignement médical dans l'Occident chrétien, à partir du XIIe siècle ».
+Première édition du Tractatus de formatione corporis humani in utero (« De la formation du corps humain dans l'utérus ») de Gilles de Rome (1247-1316).</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1515_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1515_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,14 +589,16 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Francisco Hernández (mort en 1587), botaniste espagnol chargé en 1570 par le roi Philippe II de rédiger une description de toutes les plantes médicinales se trouvant dans les colonies américaines[5],[6].
-Giambattista Canano  (mort en 1579), médecin et anatomiste, professeur à l'université de Ferrare[7].
-Valerius Cordus (mort en 1544), naturaliste et médecin allemand[8], fils du médecin Euricius Cordus (1486-1535[8]).
-Agostino Gadaldini (mort en 1575), traducteur de Galien en latin[9].
-Vers 1515 : Alfonso Ferri (it) (mort en 1595), chirurgien italien, professeur à Rome, auteur en 1552, d'un important ouvrage sur le traitement des blessures par arquebuse[10],[11].
-1515[12] ou 1516[13] : Jean Wier (mort en 1588), médecin brabançon, auteur en 1563 de De praestigiis daemonum et incantationibus ac venificiis libri V dans lesquels, s'opposant au  Marteau des sorcières, il soutient que les apparitions démoniaques sont des illusions provoquées par une dérèglement de la bile noire[14].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Francisco Hernández (mort en 1587), botaniste espagnol chargé en 1570 par le roi Philippe II de rédiger une description de toutes les plantes médicinales se trouvant dans les colonies américaines,.
+Giambattista Canano  (mort en 1579), médecin et anatomiste, professeur à l'université de Ferrare.
+Valerius Cordus (mort en 1544), naturaliste et médecin allemand, fils du médecin Euricius Cordus (1486-1535).
+Agostino Gadaldini (mort en 1575), traducteur de Galien en latin.
+Vers 1515 : Alfonso Ferri (it) (mort en 1595), chirurgien italien, professeur à Rome, auteur en 1552, d'un important ouvrage sur le traitement des blessures par arquebuse,.
+1515 ou 1516 : Jean Wier (mort en 1588), médecin brabançon, auteur en 1563 de De praestigiis daemonum et incantationibus ac venificiis libri V dans lesquels, s'opposant au  Marteau des sorcières, il soutient que les apparitions démoniaques sont des illusions provoquées par une dérèglement de la bile noire.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1515_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1515_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Johann Ambrosius (né à une date inconnue), auteur, avec son fils Johann Ambrosius le Jeune (pl) († 1534), d'un traité intitulé De morbo mal de Franco, imprimé pour la première fois à Augsbourg en 1497[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Johann Ambrosius (né à une date inconnue), auteur, avec son fils Johann Ambrosius le Jeune (pl) († 1534), d'un traité intitulé De morbo mal de Franco, imprimé pour la première fois à Augsbourg en 1497.</t>
         </is>
       </c>
     </row>
